--- a/BlackReading/src/main/java/com/bk/db/Black在线阅读平台,表.xlsx
+++ b/BlackReading/src/main/java/com/bk/db/Black在线阅读平台,表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackWarm\Desktop\Black在线阅读平台\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC512FD0-CC08-4E4E-B0A9-8E3AFC982E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF80F119-3E6A-4E1B-B74D-A6EFBED99121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="785" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="用户_章节表" sheetId="15" r:id="rId11"/>
     <sheet name="书籍_章节表" sheetId="10" r:id="rId12"/>
     <sheet name="书籍_标签表" sheetId="14" r:id="rId13"/>
-    <sheet name="历史记录表" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="154">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,14 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>历史记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,6 +621,18 @@
   </si>
   <si>
     <t>b_user_chapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍_标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1188,7 +1191,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -1440,7 +1443,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
@@ -1450,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -1664,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163F4D1F-043F-4EA9-84B8-2CD99D693F17}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1704,10 +1707,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>63</v>
@@ -1859,7 +1862,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:H9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2054,11 +2057,12 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
@@ -2092,10 +2096,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>63</v>
@@ -2222,7 +2226,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -2232,201 +2236,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F468D01D-3F61-4F7D-82BD-3DA400C8D983}">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -2602,7 +2412,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -2869,7 +2679,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -2900,7 +2710,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F857F400-1EFF-4A1D-B445-051708AC7936}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -3069,34 +2879,34 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="6" t="s">
-        <v>149</v>
+      <c r="C9" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
       <c r="F9" s="3" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>118</v>
+      <c r="C10" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>32</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -3104,47 +2914,45 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
@@ -3154,16 +2962,36 @@
         <v>15</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" xr:uid="{637D817F-1418-41FA-9B6C-DE6EB30C290A}"/>
+    <hyperlink ref="C10" display="synopsis" xr:uid="{637D817F-1418-41FA-9B6C-DE6EB30C290A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3365,7 +3193,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>95</v>
@@ -3750,10 +3578,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>63</v>
@@ -3872,7 +3700,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H8" s="3"/>
     </row>

--- a/BlackReading/src/main/java/com/bk/db/Black在线阅读平台,表.xlsx
+++ b/BlackReading/src/main/java/com/bk/db/Black在线阅读平台,表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackWarm\Desktop\Black在线阅读平台\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF80F119-3E6A-4E1B-B74D-A6EFBED99121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC512FD0-CC08-4E4E-B0A9-8E3AFC982E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="785" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="用户_章节表" sheetId="15" r:id="rId11"/>
     <sheet name="书籍_章节表" sheetId="10" r:id="rId12"/>
     <sheet name="书籍_标签表" sheetId="14" r:id="rId13"/>
+    <sheet name="历史记录表" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="153">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +566,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>历史记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>adress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -621,18 +630,6 @@
   </si>
   <si>
     <t>b_user_chapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书籍_标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1025,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1191,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -1443,7 +1440,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
@@ -1453,7 +1450,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -1667,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163F4D1F-043F-4EA9-84B8-2CD99D693F17}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1707,10 +1704,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>63</v>
@@ -1862,7 +1859,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2057,12 +2054,11 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
@@ -2096,10 +2092,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>63</v>
@@ -2226,7 +2222,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -2236,7 +2232,201 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F468D01D-3F61-4F7D-82BD-3DA400C8D983}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -2412,7 +2602,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -2679,7 +2869,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -2710,7 +2900,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F857F400-1EFF-4A1D-B445-051708AC7936}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -2879,34 +3069,34 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>152</v>
+      <c r="C9" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>200</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="6" t="s">
-        <v>147</v>
+      <c r="C10" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>32</v>
+      </c>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -2914,45 +3104,47 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
@@ -2962,36 +3154,16 @@
         <v>15</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="3" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C10" display="synopsis" xr:uid="{637D817F-1418-41FA-9B6C-DE6EB30C290A}"/>
+    <hyperlink ref="C9" xr:uid="{637D817F-1418-41FA-9B6C-DE6EB30C290A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3193,7 +3365,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>95</v>
@@ -3578,10 +3750,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>63</v>
@@ -3700,7 +3872,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H8" s="3"/>
     </row>
